--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed4/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.238</v>
+        <v>-7.797000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>7.448</v>
+        <v>6.484999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.268</v>
+        <v>6.351</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.268</v>
+        <v>6.667999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.498</v>
+        <v>13.123</v>
       </c>
     </row>
     <row r="22">
